--- a/rowcounts in db.xlsx
+++ b/rowcounts in db.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Personal\HappyDogShow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB47C2D-CA00-4DA4-9722-0639BF4064EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C784809A-EC1C-4414-90FB-A3CE7A266434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC0F2255-2551-4046-A927-5EAA2758C5E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC0F2255-2551-4046-A927-5EAA2758C5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="8" sheetId="2" r:id="rId2"/>
+    <sheet name="20200127" sheetId="3" r:id="rId2"/>
+    <sheet name="8" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="44">
   <si>
     <t>table_name</t>
   </si>
@@ -152,6 +155,18 @@
   </si>
   <si>
     <t>[dbo].[InShowChallengeResults]</t>
+  </si>
+  <si>
+    <t>freshly restored</t>
+  </si>
+  <si>
+    <t>after opening app 1st time</t>
+  </si>
+  <si>
+    <t>after running catalog</t>
+  </si>
+  <si>
+    <t>after running catalog 2</t>
   </si>
 </sst>
 </file>
@@ -167,12 +182,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,8 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9592181C-C283-446A-82D5-AB50FEF46882}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,10 +1535,1221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F4BA07-5671-4F3B-9C52-9E5B7EEE6535}">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="G3" t="b">
+        <f>B3=E3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="L3" t="b">
+        <f>E3=J3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="b">
+        <f>J3=O3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>1878</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>1878</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" ref="G4:G32" si="0">B4=E4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1904</v>
+      </c>
+      <c r="K4">
+        <f>J4-E4</f>
+        <v>26</v>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" ref="L4:L32" si="1">E4=J4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>1904</v>
+      </c>
+      <c r="Q4" t="b">
+        <f t="shared" ref="Q4:Q32" si="2">J4=O4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>470</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>470</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>470</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>470</v>
+      </c>
+      <c r="Q6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>466</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>466</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>466</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>466</v>
+      </c>
+      <c r="Q8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1">
+        <v>328</v>
+      </c>
+      <c r="K9">
+        <f>J9-E9</f>
+        <v>28</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>336</v>
+      </c>
+      <c r="Q9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>O9-J9</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>224</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>224</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>224</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>224</v>
+      </c>
+      <c r="Q12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>240</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>240</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>240</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18">
+        <v>240</v>
+      </c>
+      <c r="Q18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>48</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25">
+        <v>48</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25">
+        <v>48</v>
+      </c>
+      <c r="Q25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="Q26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="Q29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32">
+        <v>12</v>
+      </c>
+      <c r="Q32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4936B1-86F1-40FF-B464-5E640909D464}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
